--- a/GABAC, INOCENCIO JR.xlsx
+++ b/GABAC, INOCENCIO JR.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1234BF-B545-4B40-A355-F97207C43290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE EARN'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE EARN'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -281,11 +280,20 @@
   <si>
     <t>10/30,31,11/4</t>
   </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>5/19-21/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -661,6 +669,12 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,12 +707,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,6 +908,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -907,12 +921,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -932,7 +940,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1174,7 +1181,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1222,7 +1228,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1265,7 +1271,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1329,7 +1335,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1389,7 +1395,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1461,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1518,7 +1524,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1622,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1675,7 +1681,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1740,7 +1746,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1783,7 +1789,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +1864,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2044,7 +2050,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2116,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2168,7 +2174,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2234,7 +2240,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,7 +2296,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2371,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,7 +2414,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2474,7 +2480,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2530,7 +2536,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,25 +2632,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2656,25 +2662,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{585C0658-72C0-496F-B26B-04398010AEDA}" name="Table13" displayName="Table13" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{4637ADBC-088D-490D-A793-324245188B6B}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{A0F5321F-EE2D-4EED-BD60-752DE5961C7E}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23303C0E-5601-4549-9733-2263F310D23A}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{5CAA6334-B440-4CA1-962F-918B6497D8E6}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{B73132ED-0F65-4D56-9799-BAA37E806016}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4A126847-DFFA-42AC-8D3B-FC0D0CFC6D29}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{24C8D163-A4E0-4309-A885-5C753B3D610A}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A05FCAAA-B65E-47B1-AACE-0299B52588D1}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{889C3D8F-ABE2-4F92-8B86-DC3147E187CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8FC6B8F9-8031-4A34-8080-290277645F01}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7394C990-E2F1-4AC5-871B-DD77B03C72F3}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2981,7 +2987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2991,7 +2997,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2999,99 +3005,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A62" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
+      <selection pane="bottomLeft" activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57">
+      <c r="F3" s="59">
         <v>40955</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="31"/>
@@ -3106,7 +3112,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="9"/>
       <c r="C6" s="32"/>
@@ -3119,24 +3125,24 @@
       <c r="J6" s="9"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -3171,7 +3177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -3180,7 +3186,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3190,13 +3196,13 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>72.5</v>
+        <v>77</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="21"/>
@@ -3217,7 +3223,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>43101</v>
       </c>
@@ -3237,7 +3243,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>43132</v>
       </c>
@@ -3257,7 +3263,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>43160</v>
       </c>
@@ -3277,7 +3283,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>43191</v>
       </c>
@@ -3297,7 +3303,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>43221</v>
       </c>
@@ -3317,7 +3323,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>43252</v>
       </c>
@@ -3337,7 +3343,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>43282</v>
       </c>
@@ -3357,7 +3363,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>43313</v>
       </c>
@@ -3377,7 +3383,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>43344</v>
       </c>
@@ -3397,7 +3403,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42">
         <v>43374</v>
       </c>
@@ -3417,7 +3423,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>43405</v>
       </c>
@@ -3437,7 +3443,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>43435</v>
       </c>
@@ -3461,8 +3467,8 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="61" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="21"/>
@@ -3479,7 +3485,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>43466</v>
       </c>
@@ -3499,7 +3505,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="42">
         <v>43497</v>
       </c>
@@ -3519,7 +3525,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
         <v>43525</v>
       </c>
@@ -3539,7 +3545,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>43556</v>
       </c>
@@ -3559,7 +3565,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <v>43586</v>
       </c>
@@ -3579,7 +3585,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>43617</v>
       </c>
@@ -3599,7 +3605,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="42">
         <v>43647</v>
       </c>
@@ -3619,7 +3625,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>43678</v>
       </c>
@@ -3639,7 +3645,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="42">
         <v>43709</v>
       </c>
@@ -3659,7 +3665,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>43739</v>
       </c>
@@ -3679,7 +3685,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>43770</v>
       </c>
@@ -3699,7 +3705,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>43800</v>
       </c>
@@ -3723,8 +3729,8 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="61" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="50" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="21"/>
@@ -3741,7 +3747,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
         <v>43831</v>
       </c>
@@ -3761,7 +3767,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
         <v>43862</v>
       </c>
@@ -3781,7 +3787,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
         <v>43891</v>
       </c>
@@ -3801,7 +3807,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
         <v>43922</v>
       </c>
@@ -3821,7 +3827,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="42">
         <v>43952</v>
       </c>
@@ -3841,7 +3847,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
         <v>43983</v>
       </c>
@@ -3861,7 +3867,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
         <v>44013</v>
       </c>
@@ -3881,7 +3887,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
         <v>44044</v>
       </c>
@@ -3901,7 +3907,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="42">
         <v>44075</v>
       </c>
@@ -3921,7 +3927,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="42">
         <v>44105</v>
       </c>
@@ -3941,7 +3947,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="42">
         <v>44136</v>
       </c>
@@ -3961,7 +3967,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="42">
         <v>44166</v>
       </c>
@@ -3985,8 +3991,8 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="61" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="50" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="21"/>
@@ -4003,7 +4009,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="42">
         <v>44197</v>
       </c>
@@ -4023,7 +4029,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
         <v>44228</v>
       </c>
@@ -4043,7 +4049,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="42">
         <v>44256</v>
       </c>
@@ -4063,7 +4069,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="42">
         <v>44287</v>
       </c>
@@ -4083,7 +4089,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="42">
         <v>44317</v>
       </c>
@@ -4103,7 +4109,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="42">
         <v>44348</v>
       </c>
@@ -4123,7 +4129,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="42">
         <v>44378</v>
       </c>
@@ -4143,7 +4149,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="42">
         <v>44409</v>
       </c>
@@ -4163,7 +4169,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="42">
         <v>44440</v>
       </c>
@@ -4183,7 +4189,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="42">
         <v>44470</v>
       </c>
@@ -4203,7 +4209,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="42">
         <v>44501</v>
       </c>
@@ -4223,7 +4229,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="42">
         <v>44531</v>
       </c>
@@ -4247,8 +4253,8 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="61" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="50" t="s">
         <v>49</v>
       </c>
       <c r="B62" s="21"/>
@@ -4265,7 +4271,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
         <v>44562</v>
       </c>
@@ -4285,7 +4291,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
         <v>44593</v>
       </c>
@@ -4305,7 +4311,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
         <v>44621</v>
       </c>
@@ -4325,7 +4331,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
         <v>44652</v>
       </c>
@@ -4345,7 +4351,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="42">
         <v>44682</v>
       </c>
@@ -4365,7 +4371,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
         <v>44713</v>
       </c>
@@ -4385,7 +4391,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
         <v>44743</v>
       </c>
@@ -4405,7 +4411,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
         <v>44774</v>
       </c>
@@ -4425,7 +4431,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
         <v>44805</v>
       </c>
@@ -4445,7 +4451,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="42">
         <v>44835</v>
       </c>
@@ -4465,40 +4471,54 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="42"/>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="42">
+        <v>44866</v>
+      </c>
       <c r="B73" s="21"/>
-      <c r="C73" s="14"/>
+      <c r="C73" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D73" s="41"/>
       <c r="E73" s="10"/>
       <c r="F73" s="21"/>
-      <c r="G73" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G73" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H73" s="41"/>
       <c r="I73" s="10"/>
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="42"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="41"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="42">
+        <v>44896</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D74" s="41">
+        <v>5</v>
+      </c>
       <c r="E74" s="10"/>
       <c r="F74" s="21"/>
-      <c r="G74" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="41"/>
       <c r="I74" s="10"/>
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="42"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="50" t="s">
+        <v>78</v>
+      </c>
       <c r="B75" s="21"/>
       <c r="C75" s="14"/>
       <c r="D75" s="41"/>
@@ -4513,73 +4533,93 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="42"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="42">
+        <v>44927</v>
+      </c>
       <c r="B76" s="21"/>
-      <c r="C76" s="14"/>
+      <c r="C76" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="41"/>
       <c r="E76" s="10"/>
       <c r="F76" s="21"/>
-      <c r="G76" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="41"/>
       <c r="I76" s="10"/>
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="42"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="42">
+        <v>44958</v>
+      </c>
       <c r="B77" s="21"/>
-      <c r="C77" s="14"/>
+      <c r="C77" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="41"/>
       <c r="E77" s="10"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="41"/>
       <c r="I77" s="10"/>
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="42"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="42">
+        <v>44986</v>
+      </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="41"/>
       <c r="E78" s="10"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="41"/>
       <c r="I78" s="10"/>
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="42"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="42">
+        <v>45017</v>
+      </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="41"/>
       <c r="E79" s="10"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="41"/>
       <c r="I79" s="10"/>
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="42"/>
-      <c r="B80" s="21"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="42">
+        <v>45047</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>79</v>
+      </c>
       <c r="C80" s="14"/>
       <c r="D80" s="41"/>
       <c r="E80" s="10"/>
@@ -4588,12 +4628,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H80" s="41"/>
+      <c r="H80" s="41">
+        <v>3</v>
+      </c>
       <c r="I80" s="10"/>
       <c r="J80" s="12"/>
-      <c r="K80" s="21"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K80" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="42"/>
       <c r="B81" s="21"/>
       <c r="C81" s="14"/>
@@ -4609,7 +4653,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="42"/>
       <c r="B82" s="21"/>
       <c r="C82" s="14"/>
@@ -4625,7 +4669,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="42"/>
       <c r="B83" s="21"/>
       <c r="C83" s="14"/>
@@ -4641,7 +4685,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="42"/>
       <c r="B84" s="21"/>
       <c r="C84" s="14"/>
@@ -4657,7 +4701,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="42"/>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
@@ -4673,7 +4717,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="42"/>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
@@ -4689,7 +4733,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="42"/>
       <c r="B87" s="21"/>
       <c r="C87" s="14"/>
@@ -4705,7 +4749,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="42"/>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
@@ -4721,7 +4765,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="42"/>
       <c r="B89" s="21"/>
       <c r="C89" s="14"/>
@@ -4737,7 +4781,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="42"/>
       <c r="B90" s="21"/>
       <c r="C90" s="14"/>
@@ -4753,7 +4797,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="42"/>
       <c r="B91" s="21"/>
       <c r="C91" s="14"/>
@@ -4769,7 +4813,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="42"/>
       <c r="B92" s="21"/>
       <c r="C92" s="14"/>
@@ -4785,7 +4829,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="42"/>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
@@ -4801,7 +4845,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="42"/>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
@@ -4817,7 +4861,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="42"/>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
@@ -4833,7 +4877,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="42"/>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
@@ -4849,7 +4893,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="42"/>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
@@ -4865,7 +4909,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="42"/>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
@@ -4881,7 +4925,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="42"/>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
@@ -4897,7 +4941,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="42"/>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
@@ -4913,7 +4957,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="42"/>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
@@ -4929,7 +4973,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="42"/>
       <c r="B102" s="21"/>
       <c r="C102" s="14"/>
@@ -4945,7 +4989,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="42"/>
       <c r="B103" s="21"/>
       <c r="C103" s="14"/>
@@ -4961,7 +5005,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="42"/>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
@@ -4977,7 +5021,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="42"/>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -4993,7 +5037,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="42"/>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -5009,7 +5053,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="42"/>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -5025,7 +5069,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="42"/>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -5041,7 +5085,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="42"/>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -5057,7 +5101,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="42"/>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -5073,7 +5117,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="42"/>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -5089,7 +5133,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="42"/>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -5105,7 +5149,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="42"/>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -5121,7 +5165,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="42"/>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -5137,7 +5181,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="42"/>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -5153,7 +5197,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="42"/>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -5169,7 +5213,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="42"/>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -5185,7 +5229,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="42"/>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -5201,7 +5245,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="42"/>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -5217,7 +5261,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="42"/>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -5233,7 +5277,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="42"/>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -5249,7 +5293,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="42"/>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -5265,7 +5309,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="42"/>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -5281,7 +5325,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="42"/>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -5297,7 +5341,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="42"/>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -5313,7 +5357,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="42"/>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -5329,7 +5373,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="42"/>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -5345,7 +5389,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="42"/>
       <c r="B128" s="21"/>
       <c r="C128" s="14"/>
@@ -5361,7 +5405,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="42"/>
       <c r="B129" s="21"/>
       <c r="C129" s="14"/>
@@ -5377,7 +5421,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="42"/>
       <c r="B130" s="21"/>
       <c r="C130" s="14"/>
@@ -5393,7 +5437,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="21"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="42"/>
       <c r="B131" s="21"/>
       <c r="C131" s="14"/>
@@ -5409,7 +5453,7 @@
       <c r="J131" s="12"/>
       <c r="K131" s="21"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="42"/>
       <c r="B132" s="21"/>
       <c r="C132" s="14"/>
@@ -5425,7 +5469,7 @@
       <c r="J132" s="12"/>
       <c r="K132" s="21"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="42"/>
       <c r="B133" s="21"/>
       <c r="C133" s="14"/>
@@ -5441,21 +5485,37 @@
       <c r="J133" s="12"/>
       <c r="K133" s="21"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="43"/>
-      <c r="B134" s="16"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="45"/>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="42"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="41"/>
       <c r="E134" s="10"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="45"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="41"/>
       <c r="I134" s="10"/>
-      <c r="J134" s="13"/>
-      <c r="K134" s="16"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="21"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="43"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="45"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="44" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="45"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="13"/>
+      <c r="K135" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5472,10 +5532,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5498,99 +5558,99 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7BF8FF-0ABE-4CD0-864D-0EDCE57B7CE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A36" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A36" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
       <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57">
+      <c r="F3" s="59">
         <v>40955</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="31"/>
@@ -5605,7 +5665,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="9"/>
       <c r="C6" s="32"/>
@@ -5618,24 +5678,24 @@
       <c r="J6" s="9"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -5670,7 +5730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -5694,8 +5754,8 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="21"/>
@@ -5716,7 +5776,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>43101</v>
       </c>
@@ -5738,7 +5798,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="21" t="s">
         <v>53</v>
@@ -5760,7 +5820,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="21" t="s">
         <v>55</v>
@@ -5782,7 +5842,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="21" t="s">
         <v>57</v>
@@ -5800,11 +5860,11 @@
       <c r="H14" s="41"/>
       <c r="I14" s="10"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="62">
+      <c r="K14" s="51">
         <v>43161</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="21" t="s">
         <v>55</v>
@@ -5826,7 +5886,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="B16" s="16" t="s">
         <v>59</v>
@@ -5848,7 +5908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>43191</v>
       </c>
@@ -5872,7 +5932,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="21" t="s">
         <v>59</v>
@@ -5894,7 +5954,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>43221</v>
       </c>
@@ -5918,7 +5978,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="21" t="s">
         <v>57</v>
@@ -5936,11 +5996,11 @@
       <c r="H20" s="41"/>
       <c r="I20" s="10"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="62">
+      <c r="K20" s="51">
         <v>43236</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="21" t="s">
         <v>57</v>
@@ -5958,11 +6018,11 @@
       <c r="H21" s="41"/>
       <c r="I21" s="10"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="62">
+      <c r="K21" s="51">
         <v>43257</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="B22" s="21" t="s">
         <v>57</v>
@@ -5980,11 +6040,11 @@
       <c r="H22" s="41"/>
       <c r="I22" s="10"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="62">
+      <c r="K22" s="51">
         <v>43273</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="21" t="s">
         <v>59</v>
@@ -6006,7 +6066,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>43282</v>
       </c>
@@ -6026,11 +6086,11 @@
       <c r="H24" s="41"/>
       <c r="I24" s="10"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="62">
+      <c r="K24" s="51">
         <v>43293</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="42">
         <v>43313</v>
       </c>
@@ -6054,7 +6114,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="21" t="s">
         <v>57</v>
@@ -6072,11 +6132,11 @@
       <c r="H26" s="41"/>
       <c r="I26" s="10"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="62">
+      <c r="K26" s="51">
         <v>43324</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>43344</v>
       </c>
@@ -6100,7 +6160,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <v>43374</v>
       </c>
@@ -6124,7 +6184,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>43405</v>
       </c>
@@ -6144,11 +6204,11 @@
       <c r="H29" s="41"/>
       <c r="I29" s="10"/>
       <c r="J29" s="12"/>
-      <c r="K29" s="62">
+      <c r="K29" s="51">
         <v>43431</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
       <c r="B30" s="21" t="s">
         <v>57</v>
@@ -6166,11 +6226,11 @@
       <c r="H30" s="41"/>
       <c r="I30" s="10"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="62">
+      <c r="K30" s="51">
         <v>43433</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>43435</v>
       </c>
@@ -6194,7 +6254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
       <c r="B32" s="21" t="s">
         <v>57</v>
@@ -6212,12 +6272,12 @@
       <c r="H32" s="41"/>
       <c r="I32" s="10"/>
       <c r="J32" s="12"/>
-      <c r="K32" s="62">
+      <c r="K32" s="51">
         <v>43461</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="61" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="50" t="s">
         <v>46</v>
       </c>
       <c r="B33" s="21"/>
@@ -6234,7 +6294,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>43466</v>
       </c>
@@ -6256,7 +6316,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
       <c r="B35" s="21" t="s">
         <v>71</v>
@@ -6272,11 +6332,11 @@
       <c r="H35" s="41"/>
       <c r="I35" s="10"/>
       <c r="J35" s="12"/>
-      <c r="K35" s="62">
+      <c r="K35" s="51">
         <v>43476</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
       <c r="B36" s="21" t="s">
         <v>55</v>
@@ -6296,7 +6356,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
         <v>43497</v>
       </c>
@@ -6320,7 +6380,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
       <c r="B38" s="21" t="s">
         <v>57</v>
@@ -6340,7 +6400,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
       <c r="B39" s="21" t="s">
         <v>55</v>
@@ -6360,7 +6420,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
         <v>43525</v>
       </c>
@@ -6384,7 +6444,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="42">
         <v>43556</v>
       </c>
@@ -6408,7 +6468,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
         <v>43586</v>
       </c>
@@ -6432,7 +6492,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="42"/>
       <c r="B43" s="21" t="s">
         <v>57</v>
@@ -6450,11 +6510,11 @@
       <c r="H43" s="41"/>
       <c r="I43" s="10"/>
       <c r="J43" s="12"/>
-      <c r="K43" s="62">
+      <c r="K43" s="51">
         <v>43612</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
       <c r="B44" s="21" t="s">
         <v>57</v>
@@ -6472,11 +6532,11 @@
       <c r="H44" s="41"/>
       <c r="I44" s="10"/>
       <c r="J44" s="12"/>
-      <c r="K44" s="62">
+      <c r="K44" s="51">
         <v>43616</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="42">
         <v>43739</v>
       </c>
@@ -6500,7 +6560,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="42">
         <v>43800</v>
       </c>
@@ -6522,8 +6582,8 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="61" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="50" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="21"/>
@@ -6540,7 +6600,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="42">
         <v>44652</v>
       </c>
@@ -6562,7 +6622,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="42"/>
       <c r="B49" s="21"/>
       <c r="C49" s="14"/>
@@ -6578,7 +6638,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="42"/>
       <c r="B50" s="21"/>
       <c r="C50" s="14"/>
@@ -6594,7 +6654,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="42"/>
       <c r="B51" s="21"/>
       <c r="C51" s="14"/>
@@ -6610,7 +6670,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
       <c r="B52" s="21"/>
       <c r="C52" s="14"/>
@@ -6626,7 +6686,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="42"/>
       <c r="B53" s="21"/>
       <c r="C53" s="14"/>
@@ -6642,7 +6702,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="42"/>
       <c r="B54" s="21"/>
       <c r="C54" s="14"/>
@@ -6658,7 +6718,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="42"/>
       <c r="B55" s="21"/>
       <c r="C55" s="14"/>
@@ -6674,7 +6734,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
       <c r="B56" s="21"/>
       <c r="C56" s="14"/>
@@ -6690,7 +6750,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="42"/>
       <c r="B57" s="21"/>
       <c r="C57" s="14"/>
@@ -6706,7 +6766,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="42"/>
       <c r="B58" s="21"/>
       <c r="C58" s="14"/>
@@ -6722,7 +6782,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="42"/>
       <c r="B59" s="21"/>
       <c r="C59" s="14"/>
@@ -6738,7 +6798,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="42"/>
       <c r="B60" s="21"/>
       <c r="C60" s="14"/>
@@ -6754,7 +6814,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="42"/>
       <c r="B61" s="21"/>
       <c r="C61" s="14"/>
@@ -6770,7 +6830,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="42"/>
       <c r="B62" s="21"/>
       <c r="C62" s="14"/>
@@ -6786,7 +6846,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="42"/>
       <c r="B63" s="21"/>
       <c r="C63" s="14"/>
@@ -6802,7 +6862,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="42"/>
       <c r="B64" s="21"/>
       <c r="C64" s="14"/>
@@ -6818,7 +6878,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="42"/>
       <c r="B65" s="21"/>
       <c r="C65" s="14"/>
@@ -6834,7 +6894,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="42"/>
       <c r="B66" s="21"/>
       <c r="C66" s="14"/>
@@ -6850,7 +6910,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="42"/>
       <c r="B67" s="21"/>
       <c r="C67" s="14"/>
@@ -6866,7 +6926,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="42"/>
       <c r="B68" s="21"/>
       <c r="C68" s="14"/>
@@ -6882,7 +6942,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="42"/>
       <c r="B69" s="21"/>
       <c r="C69" s="14"/>
@@ -6898,7 +6958,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="42"/>
       <c r="B70" s="21"/>
       <c r="C70" s="14"/>
@@ -6914,7 +6974,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="42"/>
       <c r="B71" s="21"/>
       <c r="C71" s="14"/>
@@ -6930,7 +6990,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="42"/>
       <c r="B72" s="21"/>
       <c r="C72" s="14"/>
@@ -6946,7 +7006,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="42"/>
       <c r="B73" s="21"/>
       <c r="C73" s="14"/>
@@ -6962,7 +7022,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="42"/>
       <c r="B74" s="21"/>
       <c r="C74" s="14"/>
@@ -6978,7 +7038,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="42"/>
       <c r="B75" s="21"/>
       <c r="C75" s="14"/>
@@ -6994,7 +7054,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="42"/>
       <c r="B76" s="21"/>
       <c r="C76" s="14"/>
@@ -7010,7 +7070,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="42"/>
       <c r="B77" s="21"/>
       <c r="C77" s="14"/>
@@ -7026,7 +7086,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="42"/>
       <c r="B78" s="21"/>
       <c r="C78" s="14"/>
@@ -7042,7 +7102,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="42"/>
       <c r="B79" s="21"/>
       <c r="C79" s="14"/>
@@ -7058,7 +7118,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="42"/>
       <c r="B80" s="21"/>
       <c r="C80" s="14"/>
@@ -7074,7 +7134,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="42"/>
       <c r="B81" s="21"/>
       <c r="C81" s="14"/>
@@ -7090,7 +7150,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="42"/>
       <c r="B82" s="21"/>
       <c r="C82" s="14"/>
@@ -7106,7 +7166,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="42"/>
       <c r="B83" s="21"/>
       <c r="C83" s="14"/>
@@ -7122,7 +7182,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="42"/>
       <c r="B84" s="21"/>
       <c r="C84" s="14"/>
@@ -7138,7 +7198,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="42"/>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
@@ -7154,7 +7214,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="42"/>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
@@ -7170,7 +7230,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="42"/>
       <c r="B87" s="21"/>
       <c r="C87" s="14"/>
@@ -7186,7 +7246,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="42"/>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
@@ -7202,7 +7262,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="42"/>
       <c r="B89" s="21"/>
       <c r="C89" s="14"/>
@@ -7218,7 +7278,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="42"/>
       <c r="B90" s="21"/>
       <c r="C90" s="14"/>
@@ -7234,7 +7294,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="42"/>
       <c r="B91" s="21"/>
       <c r="C91" s="14"/>
@@ -7250,7 +7310,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="42"/>
       <c r="B92" s="21"/>
       <c r="C92" s="14"/>
@@ -7266,7 +7326,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="42"/>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
@@ -7282,7 +7342,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="42"/>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
@@ -7298,7 +7358,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="42"/>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
@@ -7314,7 +7374,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="42"/>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
@@ -7330,7 +7390,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="42"/>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
@@ -7346,7 +7406,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="42"/>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
@@ -7362,7 +7422,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="42"/>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
@@ -7378,7 +7438,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="42"/>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
@@ -7394,7 +7454,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="42"/>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
@@ -7410,7 +7470,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="42"/>
       <c r="B102" s="21"/>
       <c r="C102" s="14"/>
@@ -7426,7 +7486,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="42"/>
       <c r="B103" s="21"/>
       <c r="C103" s="14"/>
@@ -7442,7 +7502,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="42"/>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
@@ -7458,7 +7518,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="42"/>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -7474,7 +7534,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="42"/>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -7490,7 +7550,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="42"/>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -7506,7 +7566,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="42"/>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -7522,7 +7582,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="42"/>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -7538,7 +7598,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="42"/>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -7554,7 +7614,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="42"/>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -7570,7 +7630,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="42"/>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -7586,7 +7646,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="42"/>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -7602,7 +7662,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="42"/>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -7618,7 +7678,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="42"/>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -7634,7 +7694,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="42"/>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -7650,7 +7710,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="42"/>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -7666,7 +7726,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="42"/>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -7682,7 +7742,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="42"/>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -7698,7 +7758,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="42"/>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -7714,7 +7774,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="42"/>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -7730,7 +7790,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="42"/>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -7746,7 +7806,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="42"/>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -7762,7 +7822,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="42"/>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -7778,7 +7838,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="42"/>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -7794,7 +7854,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="42"/>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -7810,7 +7870,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="42"/>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -7826,7 +7886,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="42"/>
       <c r="B128" s="21"/>
       <c r="C128" s="14"/>
@@ -7842,7 +7902,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="42"/>
       <c r="B129" s="21"/>
       <c r="C129" s="14"/>
@@ -7858,7 +7918,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="43"/>
       <c r="B130" s="16"/>
       <c r="C130" s="44"/>
@@ -7876,23 +7936,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{824A43A4-1DAF-487E-B514-5D4CB6F9AC7A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{4D4BC8D9-F145-4739-8C11-C60C69B9199F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7915,41 +7975,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>24</v>
       </c>
@@ -7978,7 +8038,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>109.31100000000001</v>
       </c>
@@ -8002,17 +8062,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="35"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="40" t="s">
         <v>28</v>
       </c>
@@ -8026,14 +8086,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="48"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="39">
         <v>1</v>
       </c>
@@ -8060,7 +8120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="39">
         <v>2</v>
       </c>
@@ -8086,7 +8146,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="39">
         <v>3</v>
       </c>
@@ -8112,7 +8172,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="39">
         <v>4</v>
       </c>
@@ -8138,7 +8198,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="39">
         <v>5</v>
       </c>
@@ -8164,7 +8224,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="39">
         <v>6</v>
       </c>
@@ -8190,7 +8250,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="39">
         <v>7</v>
       </c>
@@ -8216,7 +8276,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="39">
         <v>8</v>
       </c>
@@ -8242,7 +8302,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="39">
         <v>9</v>
       </c>
@@ -8262,7 +8322,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="39">
         <v>10</v>
       </c>
@@ -8282,7 +8342,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="39">
         <v>11</v>
       </c>
@@ -8302,7 +8362,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="39">
         <v>12</v>
       </c>
@@ -8323,7 +8383,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="39">
         <v>13</v>
       </c>
@@ -8344,7 +8404,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="39">
         <v>14</v>
       </c>
@@ -8365,7 +8425,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="39">
         <v>15</v>
       </c>
@@ -8386,7 +8446,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="39">
         <v>16</v>
       </c>
@@ -8407,7 +8467,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="39">
         <v>17</v>
       </c>
@@ -8428,7 +8488,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="39">
         <v>18</v>
       </c>
@@ -8449,7 +8509,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="39">
         <v>19</v>
       </c>
@@ -8470,7 +8530,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="39">
         <v>20</v>
       </c>
@@ -8491,7 +8551,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="39">
         <v>21</v>
       </c>
@@ -8512,7 +8572,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="39">
         <v>22</v>
       </c>
@@ -8533,7 +8593,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="39">
         <v>23</v>
       </c>
@@ -8554,7 +8614,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="39">
         <v>24</v>
       </c>
@@ -8575,7 +8635,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="39">
         <v>25</v>
       </c>
@@ -8596,7 +8656,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="39">
         <v>26</v>
       </c>
@@ -8617,7 +8677,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="39">
         <v>27</v>
       </c>
@@ -8638,7 +8698,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="39">
         <v>28</v>
       </c>
@@ -8659,7 +8719,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="39">
         <v>29</v>
       </c>
@@ -8680,7 +8740,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="39">
         <v>30</v>
       </c>
@@ -8701,7 +8761,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="39">
         <v>31</v>
       </c>
@@ -8722,7 +8782,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="39">
         <v>32</v>
       </c>
@@ -8731,7 +8791,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="39">
         <v>33</v>
       </c>
@@ -8740,7 +8800,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="39">
         <v>34</v>
       </c>
@@ -8749,7 +8809,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="39">
         <v>35</v>
       </c>
@@ -8758,7 +8818,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="39">
         <v>36</v>
       </c>
@@ -8767,7 +8827,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="39">
         <v>37</v>
       </c>
@@ -8776,7 +8836,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="39">
         <v>38</v>
       </c>
@@ -8785,7 +8845,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="39">
         <v>39</v>
       </c>
@@ -8794,7 +8854,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="39">
         <v>40</v>
       </c>
@@ -8803,7 +8863,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="39">
         <v>41</v>
       </c>
@@ -8812,7 +8872,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="39">
         <v>42</v>
       </c>
@@ -8821,7 +8881,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="39">
         <v>43</v>
       </c>
@@ -8830,7 +8890,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="39">
         <v>44</v>
       </c>
@@ -8839,7 +8899,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="39">
         <v>45</v>
       </c>
@@ -8848,7 +8908,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="39">
         <v>46</v>
       </c>
@@ -8857,7 +8917,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="39">
         <v>47</v>
       </c>
@@ -8866,7 +8926,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="39">
         <v>48</v>
       </c>
@@ -8875,7 +8935,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="39">
         <v>49</v>
       </c>
@@ -8884,7 +8944,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="39">
         <v>50</v>
       </c>
@@ -8893,7 +8953,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="39">
         <v>51</v>
       </c>
@@ -8902,7 +8962,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="39">
         <v>52</v>
       </c>
@@ -8911,7 +8971,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="39">
         <v>53</v>
       </c>
@@ -8920,7 +8980,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="39">
         <v>54</v>
       </c>
@@ -8929,7 +8989,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="39">
         <v>55</v>
       </c>
@@ -8938,7 +8998,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="39">
         <v>56</v>
       </c>
@@ -8947,7 +9007,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="39">
         <v>57</v>
       </c>
@@ -8956,7 +9016,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="39">
         <v>58</v>
       </c>
@@ -8965,7 +9025,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="39">
         <v>59</v>
       </c>
@@ -8974,7 +9034,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="39">
         <v>60</v>
       </c>
@@ -8983,7 +9043,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
